--- a/biology/Botanique/Palmiste_poison/Palmiste_poison.xlsx
+++ b/biology/Botanique/Palmiste_poison/Palmiste_poison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyophorbe indica
 Le palmiste poison, appelé également palmier cochon, palmier bâtard (Hyophorbe indica), est une espèce de plantes de la famille des Arecaceae. Endémique de La Réunion, elle est menacée par la destruction de son habitat.
@@ -512,10 +524,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un palmier atteignant une dizaine de mètres de hauteur. Ses feuilles fortement arquées sont peu nombreuses.
-Il ne doit pas être confondu avec le palmier Paul et Virginie dont les fruits sont rouges lisses. Les fleurs mâles et femelles sont d'un blanc rose et  très parfumées[1]. Les fruits sont de 2 à 3 cm de diamètre, d'abord de couleur verte puis orange ou rouge selon la maturité, avec un noyau à l'intérieur ; ils tiennent longtemps sur pied[2].
+Il ne doit pas être confondu avec le palmier Paul et Virginie dont les fruits sont rouges lisses. Les fleurs mâles et femelles sont d'un blanc rose et  très parfumées. Les fruits sont de 2 à 3 cm de diamètre, d'abord de couleur verte puis orange ou rouge selon la maturité, avec un noyau à l'intérieur ; ils tiennent longtemps sur pied.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le palmiste cochon peut se trouver dans les forêts humide de basse altitude (environ 700 m), dans les forêts de Basse-Vallée, Mare-Longue à Saint-Philippe. Néanmoins il se fait de plus en plus rare. Il est peu présent dans les espaces publics et privés, alors que les palmistes bouteilles et bonbonnes des îles voisines sont plantés par centaines[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le palmiste cochon peut se trouver dans les forêts humide de basse altitude (environ 700 m), dans les forêts de Basse-Vallée, Mare-Longue à Saint-Philippe. Néanmoins il se fait de plus en plus rare. Il est peu présent dans les espaces publics et privés, alors que les palmistes bouteilles et bonbonnes des îles voisines sont plantés par centaines.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On l'appelle palmiste cochon parce que la plante était donnée comme pâture aux cochons[1]. Son cœur n'est pas comestible.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On l'appelle palmiste cochon parce que la plante était donnée comme pâture aux cochons. Son cœur n'est pas comestible.
 </t>
         </is>
       </c>
